--- a/Code/Results/Cases/Case_7_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_33/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9798986232567086</v>
+        <v>1.009792450502133</v>
       </c>
       <c r="D2">
-        <v>1.002125649922029</v>
+        <v>1.026593401768305</v>
       </c>
       <c r="E2">
-        <v>0.9866170341555566</v>
+        <v>1.012444307439085</v>
       </c>
       <c r="F2">
-        <v>0.9556539386095105</v>
+        <v>0.9871612252159694</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036039067399441</v>
+        <v>1.049073361554905</v>
       </c>
       <c r="J2">
-        <v>1.002697648431936</v>
+        <v>1.03168416452605</v>
       </c>
       <c r="K2">
-        <v>1.013555450288834</v>
+        <v>1.037694275064504</v>
       </c>
       <c r="L2">
-        <v>0.9982660182300681</v>
+        <v>1.023732953497979</v>
       </c>
       <c r="M2">
-        <v>0.9677677223925517</v>
+        <v>0.9988023705591538</v>
       </c>
       <c r="N2">
-        <v>1.004121594103737</v>
+        <v>1.033149274375505</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900302001106462</v>
+        <v>1.01789175955901</v>
       </c>
       <c r="D3">
-        <v>1.010034063727916</v>
+        <v>1.033074287928542</v>
       </c>
       <c r="E3">
-        <v>0.9953973279307247</v>
+        <v>1.019484754927276</v>
       </c>
       <c r="F3">
-        <v>0.9688565424819372</v>
+        <v>0.9980527371541169</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039888786639091</v>
+        <v>1.052720301115419</v>
       </c>
       <c r="J3">
-        <v>1.010796391701739</v>
+        <v>1.037906282086324</v>
       </c>
       <c r="K3">
-        <v>1.020540146709825</v>
+        <v>1.04330076891674</v>
       </c>
       <c r="L3">
-        <v>1.006089441541999</v>
+        <v>1.029874250047584</v>
       </c>
       <c r="M3">
-        <v>0.9799040533378358</v>
+        <v>1.008710594355527</v>
       </c>
       <c r="N3">
-        <v>1.012231838517922</v>
+        <v>1.039380228056401</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9962951606312067</v>
+        <v>1.022941168522146</v>
       </c>
       <c r="D4">
-        <v>1.014926861450514</v>
+        <v>1.037116478652557</v>
       </c>
       <c r="E4">
-        <v>1.000827435116711</v>
+        <v>1.023873383446873</v>
       </c>
       <c r="F4">
-        <v>0.9770077739431052</v>
+        <v>1.004835337737194</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042251088127045</v>
+        <v>1.054978838400751</v>
       </c>
       <c r="J4">
-        <v>1.015794113724575</v>
+        <v>1.041775700785486</v>
       </c>
       <c r="K4">
-        <v>1.024848409596983</v>
+        <v>1.046786664062424</v>
       </c>
       <c r="L4">
-        <v>1.010915883973776</v>
+        <v>1.033691969255354</v>
       </c>
       <c r="M4">
-        <v>0.9873918511944735</v>
+        <v>1.014875752710448</v>
       </c>
       <c r="N4">
-        <v>1.017236657879277</v>
+        <v>1.043255141773944</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988650978504745</v>
+        <v>1.025021174054634</v>
       </c>
       <c r="D5">
-        <v>1.016934360783572</v>
+        <v>1.038781913131614</v>
       </c>
       <c r="E5">
-        <v>1.003054961492629</v>
+        <v>1.025680965518075</v>
       </c>
       <c r="F5">
-        <v>0.9803492142678217</v>
+        <v>1.007628002811192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043215688359761</v>
+        <v>1.055905545778339</v>
       </c>
       <c r="J5">
-        <v>1.017841743248453</v>
+        <v>1.043367296568368</v>
       </c>
       <c r="K5">
-        <v>1.026613024174301</v>
+        <v>1.048220318240874</v>
       </c>
       <c r="L5">
-        <v>1.012892976678958</v>
+        <v>1.035261932016482</v>
       </c>
       <c r="M5">
-        <v>0.9904600191221508</v>
+        <v>1.017412915119157</v>
       </c>
       <c r="N5">
-        <v>1.019287195271946</v>
+        <v>1.044848997805397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9992930107380738</v>
+        <v>1.025367991048622</v>
       </c>
       <c r="D6">
-        <v>1.017268644471364</v>
+        <v>1.039059622234763</v>
       </c>
       <c r="E6">
-        <v>1.003425860366468</v>
+        <v>1.025982343634112</v>
       </c>
       <c r="F6">
-        <v>0.9809054757809086</v>
+        <v>1.008093585443946</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043376038323336</v>
+        <v>1.056059847776809</v>
       </c>
       <c r="J6">
-        <v>1.018182541703076</v>
+        <v>1.043632539027085</v>
       </c>
       <c r="K6">
-        <v>1.026906685759751</v>
+        <v>1.048459227662562</v>
       </c>
       <c r="L6">
-        <v>1.013222013231682</v>
+        <v>1.035523547050843</v>
       </c>
       <c r="M6">
-        <v>0.990970708727837</v>
+        <v>1.01783582477016</v>
       </c>
       <c r="N6">
-        <v>1.019628477699464</v>
+        <v>1.045114616938829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9963297441021178</v>
+        <v>1.022969125905614</v>
       </c>
       <c r="D7">
-        <v>1.014953874731248</v>
+        <v>1.037138862576792</v>
       </c>
       <c r="E7">
-        <v>1.000857410729331</v>
+        <v>1.023897680177373</v>
       </c>
       <c r="F7">
-        <v>0.9770527474873253</v>
+        <v>1.004872878474226</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042264086377097</v>
+        <v>1.054991308806706</v>
       </c>
       <c r="J7">
-        <v>1.015821678400037</v>
+        <v>1.041797102723254</v>
       </c>
       <c r="K7">
-        <v>1.024872166595076</v>
+        <v>1.04680594296236</v>
       </c>
       <c r="L7">
-        <v>1.010942500572305</v>
+        <v>1.033713081783274</v>
       </c>
       <c r="M7">
-        <v>0.9874331519784734</v>
+        <v>1.014909863949428</v>
       </c>
       <c r="N7">
-        <v>1.01726426169974</v>
+        <v>1.043276574104918</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9833866021996139</v>
+        <v>1.012571222828553</v>
       </c>
       <c r="D8">
-        <v>1.004847603277955</v>
+        <v>1.028816480034075</v>
       </c>
       <c r="E8">
-        <v>0.989639573960311</v>
+        <v>1.014859887617294</v>
       </c>
       <c r="F8">
-        <v>0.9602024251370148</v>
+        <v>0.990899917109008</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037368244648865</v>
+        <v>1.050327765027507</v>
       </c>
       <c r="J8">
-        <v>1.005487950619952</v>
+        <v>1.033820940751199</v>
       </c>
       <c r="K8">
-        <v>1.015962308657553</v>
+        <v>1.039619764037633</v>
       </c>
       <c r="L8">
-        <v>1.000961737079893</v>
+        <v>1.025842265208075</v>
       </c>
       <c r="M8">
-        <v>0.9719499003162284</v>
+        <v>1.002204582292658</v>
       </c>
       <c r="N8">
-        <v>1.006915858840912</v>
+        <v>1.035289085067985</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.958039617275488</v>
+        <v>0.9926255832736683</v>
       </c>
       <c r="D9">
-        <v>0.9850876583870147</v>
+        <v>1.012871593365185</v>
       </c>
       <c r="E9">
-        <v>0.9676844220731819</v>
+        <v>0.9975218511250215</v>
       </c>
       <c r="F9">
-        <v>0.9270488111857235</v>
+        <v>0.9640045689347242</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027630881484845</v>
+        <v>1.041258824272551</v>
       </c>
       <c r="J9">
-        <v>0.9851663752137585</v>
+        <v>1.018441465981067</v>
       </c>
       <c r="K9">
-        <v>0.9984274019578645</v>
+        <v>1.025759233604748</v>
       </c>
       <c r="L9">
-        <v>0.9813244995692192</v>
+        <v>1.010655262930078</v>
       </c>
       <c r="M9">
-        <v>0.9414478333233748</v>
+        <v>0.9777099540529749</v>
       </c>
       <c r="N9">
-        <v>0.9865654244667246</v>
+        <v>1.019887769679629</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9388853909020509</v>
+        <v>0.9779772737027558</v>
       </c>
       <c r="D10">
-        <v>0.9701946890195853</v>
+        <v>1.001182657893836</v>
       </c>
       <c r="E10">
-        <v>0.9511148856807443</v>
+        <v>0.9847941249835761</v>
       </c>
       <c r="F10">
-        <v>0.9017967945319191</v>
+        <v>0.9441378097446265</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020174274072244</v>
+        <v>1.034515904845862</v>
       </c>
       <c r="J10">
-        <v>0.9697526650219566</v>
+        <v>1.007092746252375</v>
       </c>
       <c r="K10">
-        <v>0.9851237797648167</v>
+        <v>1.015530591868304</v>
       </c>
       <c r="L10">
-        <v>0.9664266717233333</v>
+        <v>0.9994434630211393</v>
       </c>
       <c r="M10">
-        <v>0.9181985289109061</v>
+        <v>0.9595946488024137</v>
       </c>
       <c r="N10">
-        <v>0.9711298250384732</v>
+        <v>1.008522933467206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9298865908352398</v>
+        <v>0.97124082525553</v>
       </c>
       <c r="D11">
-        <v>0.9632122716660199</v>
+        <v>0.9958142851358925</v>
       </c>
       <c r="E11">
-        <v>0.9433392757387981</v>
+        <v>0.9789440082501611</v>
       </c>
       <c r="F11">
-        <v>0.889856054636762</v>
+        <v>0.9349591294047095</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016649135524482</v>
+        <v>1.031395779960509</v>
       </c>
       <c r="J11">
-        <v>0.9624978784822619</v>
+        <v>1.00186096887374</v>
       </c>
       <c r="K11">
-        <v>0.9788629757052388</v>
+        <v>1.010815571975759</v>
       </c>
       <c r="L11">
-        <v>0.9594151371735897</v>
+        <v>0.9942742422928311</v>
       </c>
       <c r="M11">
-        <v>0.9072040061244203</v>
+        <v>0.9512214989536402</v>
       </c>
       <c r="N11">
-        <v>0.9638647358697564</v>
+        <v>1.0032837263646</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9264185481971405</v>
+        <v>0.9686717688551594</v>
       </c>
       <c r="D12">
-        <v>0.960524029081865</v>
+        <v>0.9937682434217984</v>
       </c>
       <c r="E12">
-        <v>0.9403443859176182</v>
+        <v>0.9767136157199063</v>
       </c>
       <c r="F12">
-        <v>0.8852390700395932</v>
+        <v>0.9314506800922736</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015287437870739</v>
+        <v>1.03020302553548</v>
       </c>
       <c r="J12">
-        <v>0.9596999803734905</v>
+        <v>0.9998638308992707</v>
       </c>
       <c r="K12">
-        <v>0.9764487268462323</v>
+        <v>1.009015815902816</v>
       </c>
       <c r="L12">
-        <v>0.9567112633504322</v>
+        <v>0.9923009704650273</v>
       </c>
       <c r="M12">
-        <v>0.9029531586283986</v>
+        <v>0.9480205749575236</v>
       </c>
       <c r="N12">
-        <v>0.9610628644247473</v>
+        <v>1.001283752225132</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9271685105992475</v>
+        <v>0.9692260049414615</v>
       </c>
       <c r="D13">
-        <v>0.9611052283796467</v>
+        <v>0.9942095856504966</v>
       </c>
       <c r="E13">
-        <v>0.9409919429129869</v>
+        <v>0.9771947576944137</v>
       </c>
       <c r="F13">
-        <v>0.8862382414147506</v>
+        <v>0.9322079674882536</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015582043077372</v>
+        <v>1.030460472200206</v>
       </c>
       <c r="J13">
-        <v>0.9603051132602116</v>
+        <v>1.000294770271279</v>
       </c>
       <c r="K13">
-        <v>0.9769708663458575</v>
+        <v>1.009404158108166</v>
       </c>
       <c r="L13">
-        <v>0.9572960482217123</v>
+        <v>0.9927267593501008</v>
       </c>
       <c r="M13">
-        <v>0.9038730734592474</v>
+        <v>0.9487114979741039</v>
       </c>
       <c r="N13">
-        <v>0.9616688566695772</v>
+        <v>1.001715303580478</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9296026148298461</v>
+        <v>0.9710298796614509</v>
       </c>
       <c r="D14">
-        <v>0.9629920904701491</v>
+        <v>0.9956462572557593</v>
       </c>
       <c r="E14">
-        <v>0.94309400526875</v>
+        <v>0.9787608561733702</v>
       </c>
       <c r="F14">
-        <v>0.8894783286936154</v>
+        <v>0.9346712227641458</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016537697167689</v>
+        <v>1.031297899977313</v>
       </c>
       <c r="J14">
-        <v>0.962268816182364</v>
+        <v>1.001697022285903</v>
       </c>
       <c r="K14">
-        <v>0.9786653151462231</v>
+        <v>1.010667825844788</v>
       </c>
       <c r="L14">
-        <v>0.9591937673397845</v>
+        <v>0.9941122547108387</v>
       </c>
       <c r="M14">
-        <v>0.9068562264548206</v>
+        <v>0.9509588346896087</v>
       </c>
       <c r="N14">
-        <v>0.9636353482751187</v>
+        <v>1.003119546953803</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9310850369689513</v>
+        <v>0.9721321937376808</v>
       </c>
       <c r="D15">
-        <v>0.9641416012485987</v>
+        <v>0.996524354182117</v>
       </c>
       <c r="E15">
-        <v>0.9443744485284057</v>
+        <v>0.9797179602141608</v>
       </c>
       <c r="F15">
-        <v>0.8914495129325134</v>
+        <v>0.9361753682747099</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01711930592581</v>
+        <v>1.031809265198763</v>
       </c>
       <c r="J15">
-        <v>0.9634644959909447</v>
+        <v>1.002553661572669</v>
       </c>
       <c r="K15">
-        <v>0.9796970949458673</v>
+        <v>1.011439821117806</v>
       </c>
       <c r="L15">
-        <v>0.9603493028149541</v>
+        <v>0.9949586578765459</v>
       </c>
       <c r="M15">
-        <v>0.9086711480708577</v>
+        <v>0.9523310891341435</v>
       </c>
       <c r="N15">
-        <v>0.9648327260861741</v>
+        <v>1.003977402766615</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9394662101574659</v>
+        <v>0.9784154317913732</v>
       </c>
       <c r="D16">
-        <v>0.9706456984025043</v>
+        <v>1.001531995338801</v>
       </c>
       <c r="E16">
-        <v>0.9516169681511011</v>
+        <v>0.9851747116096049</v>
       </c>
       <c r="F16">
-        <v>0.9025656576625783</v>
+        <v>0.9447338176670051</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020401365843428</v>
+        <v>1.034718455613966</v>
       </c>
       <c r="J16">
-        <v>0.9702206494477197</v>
+        <v>1.007432774561685</v>
       </c>
       <c r="K16">
-        <v>0.9855276764082459</v>
+        <v>1.015837047529321</v>
       </c>
       <c r="L16">
-        <v>0.9668789846574164</v>
+        <v>0.9997794195943053</v>
       </c>
       <c r="M16">
-        <v>0.918906478883127</v>
+        <v>0.9601382886848432</v>
       </c>
       <c r="N16">
-        <v>0.9715984740557996</v>
+        <v>1.008863444655717</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9445225637720677</v>
+        <v>0.982246359416309</v>
       </c>
       <c r="D17">
-        <v>0.9745736293344464</v>
+        <v>1.004587159658009</v>
       </c>
       <c r="E17">
-        <v>0.9559888942891852</v>
+        <v>0.9885026420559758</v>
       </c>
       <c r="F17">
-        <v>0.9092502108341469</v>
+        <v>0.9499399702762709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022375913801657</v>
+        <v>1.036487266122063</v>
       </c>
       <c r="J17">
-        <v>0.9742932462933502</v>
+        <v>1.010404304489442</v>
       </c>
       <c r="K17">
-        <v>0.9890426627499536</v>
+        <v>1.018515234567201</v>
       </c>
       <c r="L17">
-        <v>0.9708152625102939</v>
+        <v>1.002715310164392</v>
       </c>
       <c r="M17">
-        <v>0.9250613943587341</v>
+        <v>0.9648866119970273</v>
       </c>
       <c r="N17">
-        <v>0.975676854456084</v>
+        <v>1.011839194496811</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9474054010863171</v>
+        <v>0.984443484720039</v>
       </c>
       <c r="D18">
-        <v>0.9768143898486384</v>
+        <v>1.006340014864963</v>
       </c>
       <c r="E18">
-        <v>0.9584822962969425</v>
+        <v>0.9904115619493914</v>
       </c>
       <c r="F18">
-        <v>0.9130545390321897</v>
+        <v>0.9529219973329492</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023499658594777</v>
+        <v>1.03749993101867</v>
       </c>
       <c r="J18">
-        <v>0.9766139805814047</v>
+        <v>1.012107360350624</v>
       </c>
       <c r="K18">
-        <v>0.9910457098857437</v>
+        <v>1.020050201478256</v>
       </c>
       <c r="L18">
-        <v>0.9730583461105138</v>
+        <v>1.004397882677951</v>
       </c>
       <c r="M18">
-        <v>0.9285641920561976</v>
+        <v>0.9676060472311736</v>
       </c>
       <c r="N18">
-        <v>0.9780008844530192</v>
+        <v>1.013544668892659</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.948377613705934</v>
+        <v>0.9851865164219381</v>
       </c>
       <c r="D19">
-        <v>0.9775702713674932</v>
+        <v>1.006932906050567</v>
       </c>
       <c r="E19">
-        <v>0.9593232978881855</v>
+        <v>0.9910571691205222</v>
       </c>
       <c r="F19">
-        <v>0.914336447246483</v>
+        <v>0.9539298642365636</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023878284156659</v>
+        <v>1.037842093065099</v>
       </c>
       <c r="J19">
-        <v>0.9773964206027916</v>
+        <v>1.012683104735777</v>
       </c>
       <c r="K19">
-        <v>0.9917210470049944</v>
+        <v>1.020569124808907</v>
       </c>
       <c r="L19">
-        <v>0.9738146075573499</v>
+        <v>1.004966690748542</v>
       </c>
       <c r="M19">
-        <v>0.9297444696728941</v>
+        <v>0.9685250990939828</v>
       </c>
       <c r="N19">
-        <v>0.9787844356289841</v>
+        <v>1.014121230900878</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9439870623810881</v>
+        <v>0.9818392555726764</v>
       </c>
       <c r="D20">
-        <v>0.9741574980313691</v>
+        <v>1.004262425568976</v>
       </c>
       <c r="E20">
-        <v>0.9555257938109367</v>
+        <v>0.9881489607456012</v>
       </c>
       <c r="F20">
-        <v>0.9085430045333766</v>
+        <v>0.9493871326894704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022167006584631</v>
+        <v>1.03629948464089</v>
       </c>
       <c r="J20">
-        <v>0.9738620586464138</v>
+        <v>1.010088650202078</v>
       </c>
       <c r="K20">
-        <v>0.9886705046606192</v>
+        <v>1.018230737158561</v>
       </c>
       <c r="L20">
-        <v>0.9703985037386863</v>
+        <v>1.002403447255502</v>
       </c>
       <c r="M20">
-        <v>0.9244102304843012</v>
+        <v>0.9643824265859735</v>
       </c>
       <c r="N20">
-        <v>0.9752450544732313</v>
+        <v>1.011523091944153</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9288894816135348</v>
+        <v>0.9705005980006242</v>
       </c>
       <c r="D21">
-        <v>0.9624392069936785</v>
+        <v>0.9952246812711223</v>
       </c>
       <c r="E21">
-        <v>0.9424781006737276</v>
+        <v>0.9783013220169609</v>
       </c>
       <c r="F21">
-        <v>0.8885295099668623</v>
+        <v>0.9339487041328252</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016257798417153</v>
+        <v>1.031052264727849</v>
       </c>
       <c r="J21">
-        <v>0.9616935530798414</v>
+        <v>1.001285634699385</v>
       </c>
       <c r="K21">
-        <v>0.97816891945434</v>
+        <v>1.010297091834516</v>
       </c>
       <c r="L21">
-        <v>0.9586378269158718</v>
+        <v>0.9937057828631797</v>
       </c>
       <c r="M21">
-        <v>0.9059826364312948</v>
+        <v>0.9502996578421476</v>
       </c>
       <c r="N21">
-        <v>0.963059268233007</v>
+        <v>1.002707575149726</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9186566488089861</v>
+        <v>0.9629798207008801</v>
       </c>
       <c r="D22">
-        <v>0.9545131737365092</v>
+        <v>0.9892376945131802</v>
       </c>
       <c r="E22">
-        <v>0.9336452726499572</v>
+        <v>0.971773430715536</v>
       </c>
       <c r="F22">
-        <v>0.874872405011933</v>
+        <v>0.9236604380303215</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012234137168551</v>
+        <v>1.027555167991571</v>
       </c>
       <c r="J22">
-        <v>0.9534342713217245</v>
+        <v>0.9954354676291712</v>
       </c>
       <c r="K22">
-        <v>0.9710429956407127</v>
+        <v>1.005025412772302</v>
       </c>
       <c r="L22">
-        <v>0.9506567169193073</v>
+        <v>0.9879255953228916</v>
       </c>
       <c r="M22">
-        <v>0.8934096738121631</v>
+        <v>0.9409126923828648</v>
       </c>
       <c r="N22">
-        <v>0.9547882573474407</v>
+        <v>0.9968491001712487</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9241596032900681</v>
+        <v>0.9670068450859025</v>
       </c>
       <c r="D23">
-        <v>0.95877385756473</v>
+        <v>0.9924426571796714</v>
       </c>
       <c r="E23">
-        <v>0.9383941883134757</v>
+        <v>0.9752683769753245</v>
       </c>
       <c r="F23">
-        <v>0.8822269231873986</v>
+        <v>0.9291744688354859</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014399616195722</v>
+        <v>1.029429242888621</v>
       </c>
       <c r="J23">
-        <v>0.9578769836223315</v>
+        <v>0.9985690094231181</v>
       </c>
       <c r="K23">
-        <v>0.9748758142223624</v>
+        <v>1.007849006466751</v>
       </c>
       <c r="L23">
-        <v>0.9549496111210184</v>
+        <v>0.9910216287728021</v>
       </c>
       <c r="M23">
-        <v>0.9001800205866907</v>
+        <v>0.9459437977265281</v>
       </c>
       <c r="N23">
-        <v>0.9592372788091007</v>
+        <v>0.9999870919539652</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9442292363354956</v>
+        <v>0.9820233232543368</v>
       </c>
       <c r="D24">
-        <v>0.974345684356381</v>
+        <v>1.004409248638582</v>
       </c>
       <c r="E24">
-        <v>0.9557352229173025</v>
+        <v>0.9883088731529605</v>
       </c>
       <c r="F24">
-        <v>0.908862850944387</v>
+        <v>0.9496371041122607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022261488653228</v>
+        <v>1.036384393614189</v>
       </c>
       <c r="J24">
-        <v>0.9740570618011767</v>
+        <v>1.010231373625843</v>
       </c>
       <c r="K24">
-        <v>0.9888388117157764</v>
+        <v>1.018359372867874</v>
       </c>
       <c r="L24">
-        <v>0.9705869814012252</v>
+        <v>1.0025444565877</v>
       </c>
       <c r="M24">
-        <v>0.9247047310733757</v>
+        <v>0.9646104005164404</v>
       </c>
       <c r="N24">
-        <v>0.9754403345548409</v>
+        <v>1.01166601805155</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9649428166113101</v>
+        <v>0.9979986578022771</v>
       </c>
       <c r="D25">
-        <v>0.9904641014820285</v>
+        <v>1.017163961734603</v>
       </c>
       <c r="E25">
-        <v>0.9736612831561172</v>
+        <v>1.002192047791226</v>
       </c>
       <c r="F25">
-        <v>0.936103496592372</v>
+        <v>0.9712649276765615</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030299502156637</v>
+        <v>1.043715886130017</v>
       </c>
       <c r="J25">
-        <v>0.9907104669146505</v>
+        <v>1.022593563323567</v>
       </c>
       <c r="K25">
-        <v>1.003212275973053</v>
+        <v>1.029501546725667</v>
       </c>
       <c r="L25">
-        <v>0.986682714759927</v>
+        <v>1.01475643008146</v>
       </c>
       <c r="M25">
-        <v>0.9497819269246794</v>
+        <v>0.9843263229066099</v>
       </c>
       <c r="N25">
-        <v>0.9921173894137485</v>
+        <v>1.024045763476608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009792450502133</v>
+        <v>1.007993199781812</v>
       </c>
       <c r="D2">
-        <v>1.026593401768305</v>
+        <v>1.023779524267673</v>
       </c>
       <c r="E2">
-        <v>1.012444307439085</v>
+        <v>1.013220135308971</v>
       </c>
       <c r="F2">
-        <v>0.9871612252159694</v>
+        <v>1.020084933421647</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049073361554905</v>
+        <v>1.04755373896486</v>
       </c>
       <c r="J2">
-        <v>1.03168416452605</v>
+        <v>1.029937435998089</v>
       </c>
       <c r="K2">
-        <v>1.037694275064504</v>
+        <v>1.03491722225995</v>
       </c>
       <c r="L2">
-        <v>1.023732953497979</v>
+        <v>1.024498314525669</v>
       </c>
       <c r="M2">
-        <v>0.9988023705591538</v>
+        <v>1.031271368882102</v>
       </c>
       <c r="N2">
-        <v>1.033149274375505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013508549239125</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.033321545048351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01789175955901</v>
+        <v>1.012462776938633</v>
       </c>
       <c r="D3">
-        <v>1.033074287928542</v>
+        <v>1.027023858482298</v>
       </c>
       <c r="E3">
-        <v>1.019484754927276</v>
+        <v>1.016804953279047</v>
       </c>
       <c r="F3">
-        <v>0.9980527371541169</v>
+        <v>1.023421778480556</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052720301115419</v>
+        <v>1.049063587597059</v>
       </c>
       <c r="J3">
-        <v>1.037906282086324</v>
+        <v>1.032619365170038</v>
       </c>
       <c r="K3">
-        <v>1.04330076891674</v>
+        <v>1.037322256931394</v>
       </c>
       <c r="L3">
-        <v>1.029874250047584</v>
+        <v>1.027227233763911</v>
       </c>
       <c r="M3">
-        <v>1.008710594355527</v>
+        <v>1.033763493775673</v>
       </c>
       <c r="N3">
-        <v>1.039380228056401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014440350244841</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.035293911948496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022941168522146</v>
+        <v>1.015290972127894</v>
       </c>
       <c r="D4">
-        <v>1.037116478652557</v>
+        <v>1.029078462479633</v>
       </c>
       <c r="E4">
-        <v>1.023873383446873</v>
+        <v>1.019078547363736</v>
       </c>
       <c r="F4">
-        <v>1.004835337737194</v>
+        <v>1.025543262075933</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054978838400751</v>
+        <v>1.050007281560392</v>
       </c>
       <c r="J4">
-        <v>1.041775700785486</v>
+        <v>1.03431145929386</v>
       </c>
       <c r="K4">
-        <v>1.046786664062424</v>
+        <v>1.038838159754492</v>
       </c>
       <c r="L4">
-        <v>1.033691969255354</v>
+        <v>1.028952037604216</v>
       </c>
       <c r="M4">
-        <v>1.014875752710448</v>
+        <v>1.035342875148326</v>
       </c>
       <c r="N4">
-        <v>1.043255141773944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015027768311442</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.036543894422071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025021174054634</v>
+        <v>1.01646516257438</v>
       </c>
       <c r="D5">
-        <v>1.038781913131614</v>
+        <v>1.029931834558149</v>
       </c>
       <c r="E5">
-        <v>1.025680965518075</v>
+        <v>1.020023698904663</v>
       </c>
       <c r="F5">
-        <v>1.007628002811192</v>
+        <v>1.026426409073291</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055905545778339</v>
+        <v>1.050396227383612</v>
       </c>
       <c r="J5">
-        <v>1.043367296568368</v>
+        <v>1.035012747428203</v>
       </c>
       <c r="K5">
-        <v>1.048220318240874</v>
+        <v>1.039466056086144</v>
       </c>
       <c r="L5">
-        <v>1.035261932016482</v>
+        <v>1.029667619723265</v>
       </c>
       <c r="M5">
-        <v>1.017412915119157</v>
+        <v>1.035999143845204</v>
       </c>
       <c r="N5">
-        <v>1.044848997805397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01527110281355</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.037063289775747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025367991048622</v>
+        <v>1.016661462066555</v>
       </c>
       <c r="D6">
-        <v>1.039059622234763</v>
+        <v>1.030074519527089</v>
       </c>
       <c r="E6">
-        <v>1.025982343634112</v>
+        <v>1.020181778340476</v>
       </c>
       <c r="F6">
-        <v>1.008093585443946</v>
+        <v>1.026574190061611</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056059847776809</v>
+        <v>1.050461081864127</v>
       </c>
       <c r="J6">
-        <v>1.043632539027085</v>
+        <v>1.035129914722835</v>
       </c>
       <c r="K6">
-        <v>1.048459227662562</v>
+        <v>1.039570939437604</v>
       </c>
       <c r="L6">
-        <v>1.035523547050843</v>
+        <v>1.029787218628655</v>
       </c>
       <c r="M6">
-        <v>1.01783582477016</v>
+        <v>1.036108889366668</v>
       </c>
       <c r="N6">
-        <v>1.045114616938829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015311750495304</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.037150146409195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022969125905614</v>
+        <v>1.015306719135082</v>
       </c>
       <c r="D7">
-        <v>1.037138862576792</v>
+        <v>1.029089905669611</v>
       </c>
       <c r="E7">
-        <v>1.023897680177373</v>
+        <v>1.019091217988141</v>
       </c>
       <c r="F7">
-        <v>1.004872878474226</v>
+        <v>1.02555509662936</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054991308806706</v>
+        <v>1.050012509018603</v>
       </c>
       <c r="J7">
-        <v>1.041797102723254</v>
+        <v>1.03432086911946</v>
       </c>
       <c r="K7">
-        <v>1.04680594296236</v>
+        <v>1.038846586290783</v>
       </c>
       <c r="L7">
-        <v>1.033713081783274</v>
+        <v>1.028961636305003</v>
       </c>
       <c r="M7">
-        <v>1.014909863949428</v>
+        <v>1.035351674197836</v>
       </c>
       <c r="N7">
-        <v>1.043276574104918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01503103383943</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.036550858318263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012571222828553</v>
+        <v>1.009517270934039</v>
       </c>
       <c r="D8">
-        <v>1.028816480034075</v>
+        <v>1.024885413052339</v>
       </c>
       <c r="E8">
-        <v>1.014859887617294</v>
+        <v>1.014441387253719</v>
       </c>
       <c r="F8">
-        <v>0.990899917109008</v>
+        <v>1.021220619699905</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050327765027507</v>
+        <v>1.048071003874591</v>
       </c>
       <c r="J8">
-        <v>1.033820940751199</v>
+        <v>1.030852953927705</v>
       </c>
       <c r="K8">
-        <v>1.039619764037633</v>
+        <v>1.035738524829155</v>
       </c>
       <c r="L8">
-        <v>1.025842265208075</v>
+        <v>1.025429230436411</v>
       </c>
       <c r="M8">
-        <v>1.002204582292658</v>
+        <v>1.032120616097552</v>
       </c>
       <c r="N8">
-        <v>1.035289085067985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013826730604779</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.033993673739853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9926255832736683</v>
+        <v>0.9988011973443411</v>
       </c>
       <c r="D9">
-        <v>1.012871593365185</v>
+        <v>1.017119154809188</v>
       </c>
       <c r="E9">
-        <v>0.9975218511250215</v>
+        <v>1.00587865372037</v>
       </c>
       <c r="F9">
-        <v>0.9640045689347242</v>
+        <v>1.013280155517438</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041258824272551</v>
+        <v>1.044386170912601</v>
       </c>
       <c r="J9">
-        <v>1.018441465981067</v>
+        <v>1.024396359561479</v>
       </c>
       <c r="K9">
-        <v>1.025759233604748</v>
+        <v>1.02994046003922</v>
       </c>
       <c r="L9">
-        <v>1.010655262930078</v>
+        <v>1.018877068498536</v>
       </c>
       <c r="M9">
-        <v>0.9777099540529749</v>
+        <v>1.026161384237266</v>
       </c>
       <c r="N9">
-        <v>1.019887769679629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011581002210247</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.02927728230096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9779772737027558</v>
+        <v>0.9914221266344652</v>
       </c>
       <c r="D10">
-        <v>1.001182657893836</v>
+        <v>1.011800677897233</v>
       </c>
       <c r="E10">
-        <v>0.9847941249835761</v>
+        <v>1.000031883829924</v>
       </c>
       <c r="F10">
-        <v>0.9441378097446265</v>
+        <v>1.008104745155848</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034515904845862</v>
+        <v>1.041821685420373</v>
       </c>
       <c r="J10">
-        <v>1.007092746252375</v>
+        <v>1.019980258714304</v>
       </c>
       <c r="K10">
-        <v>1.015530591868304</v>
+        <v>1.025960086873356</v>
       </c>
       <c r="L10">
-        <v>0.9994434630211393</v>
+        <v>1.01440056262823</v>
       </c>
       <c r="M10">
-        <v>0.9595946488024137</v>
+        <v>1.022329191739695</v>
       </c>
       <c r="N10">
-        <v>1.008522933467206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010057417359261</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.026296514137753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.97124082525553</v>
+        <v>0.9893066121956566</v>
       </c>
       <c r="D11">
-        <v>0.9958142851358925</v>
+        <v>1.010401370617583</v>
       </c>
       <c r="E11">
-        <v>0.9789440082501611</v>
+        <v>0.9985059166883633</v>
       </c>
       <c r="F11">
-        <v>0.9349591294047095</v>
+        <v>1.008493072873196</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031395779960509</v>
+        <v>1.041319682474594</v>
       </c>
       <c r="J11">
-        <v>1.00186096887374</v>
+        <v>1.019131115715334</v>
       </c>
       <c r="K11">
-        <v>1.010815571975759</v>
+        <v>1.025129762415752</v>
       </c>
       <c r="L11">
-        <v>0.9942742422928311</v>
+        <v>1.013456064342922</v>
       </c>
       <c r="M11">
-        <v>0.9512214989536402</v>
+        <v>1.023256580153276</v>
       </c>
       <c r="N11">
-        <v>1.0032837263646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009888368294396</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.027472268640156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9686717688551594</v>
+        <v>0.9889157916680221</v>
       </c>
       <c r="D12">
-        <v>0.9937682434217984</v>
+        <v>1.010209746108809</v>
       </c>
       <c r="E12">
-        <v>0.9767136157199063</v>
+        <v>0.9983060994147619</v>
       </c>
       <c r="F12">
-        <v>0.9314506800922736</v>
+        <v>1.009533658748477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03020302553548</v>
+        <v>1.041354148905058</v>
       </c>
       <c r="J12">
-        <v>0.9998638308992707</v>
+        <v>1.019196777670349</v>
       </c>
       <c r="K12">
-        <v>1.009015815902816</v>
+        <v>1.025143923112641</v>
       </c>
       <c r="L12">
-        <v>0.9923009704650273</v>
+        <v>1.013465823999154</v>
       </c>
       <c r="M12">
-        <v>0.9480205749575236</v>
+        <v>1.024480460149829</v>
       </c>
       <c r="N12">
-        <v>1.001283752225132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010010524822694</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.028770158166864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9692260049414615</v>
+        <v>0.9898214200128718</v>
       </c>
       <c r="D13">
-        <v>0.9942095856504966</v>
+        <v>1.010929984623677</v>
       </c>
       <c r="E13">
-        <v>0.9771947576944137</v>
+        <v>0.999106595882631</v>
       </c>
       <c r="F13">
-        <v>0.9322079674882536</v>
+        <v>1.01116383542589</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030460472200206</v>
+        <v>1.041805498822325</v>
       </c>
       <c r="J13">
-        <v>1.000294770271279</v>
+        <v>1.019968668910554</v>
       </c>
       <c r="K13">
-        <v>1.009404158108166</v>
+        <v>1.02580739592401</v>
       </c>
       <c r="L13">
-        <v>0.9927267593501008</v>
+        <v>1.014206840626259</v>
       </c>
       <c r="M13">
-        <v>0.9487114979741039</v>
+        <v>1.026036907912246</v>
       </c>
       <c r="N13">
-        <v>1.001715303580478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010363595898867</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.030279819384684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,81 +997,93 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9710298796614509</v>
+        <v>0.9910240394793902</v>
       </c>
       <c r="D14">
-        <v>0.9956462572557593</v>
+        <v>1.011832224818603</v>
       </c>
       <c r="E14">
-        <v>0.9787608561733702</v>
+        <v>1.000103611523204</v>
       </c>
       <c r="F14">
-        <v>0.9346712227641458</v>
+        <v>1.012541074466509</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031297899977313</v>
+        <v>1.042299888186809</v>
       </c>
       <c r="J14">
-        <v>1.001697022285903</v>
+        <v>1.020811251130676</v>
       </c>
       <c r="K14">
-        <v>1.010667825844788</v>
+        <v>1.026551080816732</v>
       </c>
       <c r="L14">
-        <v>0.9941122547108387</v>
+        <v>1.015040540443323</v>
       </c>
       <c r="M14">
-        <v>0.9509588346896087</v>
+        <v>1.027246961419709</v>
       </c>
       <c r="N14">
-        <v>1.003119546953803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010708404127894</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.031410829367357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9721321937376808</v>
+        <v>0.9916131823219371</v>
       </c>
       <c r="D15">
-        <v>0.996524354182117</v>
+        <v>1.012262683140018</v>
       </c>
       <c r="E15">
-        <v>0.9797179602141608</v>
+        <v>1.000577435298161</v>
       </c>
       <c r="F15">
-        <v>0.9361753682747099</v>
+        <v>1.013054395449913</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031809265198763</v>
+        <v>1.042519791842221</v>
       </c>
       <c r="J15">
-        <v>1.002553661572669</v>
+        <v>1.021185844586943</v>
       </c>
       <c r="K15">
-        <v>1.011439821117806</v>
+        <v>1.026886326031768</v>
       </c>
       <c r="L15">
-        <v>0.9949586578765459</v>
+        <v>1.015416603150128</v>
       </c>
       <c r="M15">
-        <v>0.9523310891341435</v>
+        <v>1.027663669769577</v>
       </c>
       <c r="N15">
-        <v>1.003977402766615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01084871368824</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.031777949214255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9784154317913732</v>
+        <v>0.9945389627050634</v>
       </c>
       <c r="D16">
-        <v>1.001531995338801</v>
+        <v>1.014354306460125</v>
       </c>
       <c r="E16">
-        <v>0.9851747116096049</v>
+        <v>1.002870499103821</v>
       </c>
       <c r="F16">
-        <v>0.9447338176670051</v>
+        <v>1.014963694552782</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034718455613966</v>
+        <v>1.043519724637472</v>
       </c>
       <c r="J16">
-        <v>1.007432774561685</v>
+        <v>1.022893453123674</v>
       </c>
       <c r="K16">
-        <v>1.015837047529321</v>
+        <v>1.028433206257992</v>
       </c>
       <c r="L16">
-        <v>0.9997794195943053</v>
+        <v>1.017151592519767</v>
       </c>
       <c r="M16">
-        <v>0.9601382886848432</v>
+        <v>1.029032030362795</v>
       </c>
       <c r="N16">
-        <v>1.008863444655717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011419876136555</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.032820550723256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.982246359416309</v>
+        <v>0.9961644833685752</v>
       </c>
       <c r="D17">
-        <v>1.004587159658009</v>
+        <v>1.015495763857064</v>
       </c>
       <c r="E17">
-        <v>0.9885026420559758</v>
+        <v>1.004118622575956</v>
       </c>
       <c r="F17">
-        <v>0.9499399702762709</v>
+        <v>1.015714168630571</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036487266122063</v>
+        <v>1.044030912160061</v>
       </c>
       <c r="J17">
-        <v>1.010404304489442</v>
+        <v>1.023770856951622</v>
       </c>
       <c r="K17">
-        <v>1.018515234567201</v>
+        <v>1.02923744388334</v>
       </c>
       <c r="L17">
-        <v>1.002715310164392</v>
+        <v>1.018054820748355</v>
       </c>
       <c r="M17">
-        <v>0.9648866119970273</v>
+        <v>1.029452169511076</v>
       </c>
       <c r="N17">
-        <v>1.011839194496811</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011680425042094</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033022807428539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.984443484720039</v>
+        <v>0.9967742437939983</v>
       </c>
       <c r="D18">
-        <v>1.006340014864963</v>
+        <v>1.015882216436477</v>
       </c>
       <c r="E18">
-        <v>0.9904115619493914</v>
+        <v>1.004535335142103</v>
       </c>
       <c r="F18">
-        <v>0.9529219973329492</v>
+        <v>1.015365699948583</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03749993101867</v>
+        <v>1.044139685946201</v>
       </c>
       <c r="J18">
-        <v>1.012107360350624</v>
+        <v>1.023959672668947</v>
       </c>
       <c r="K18">
-        <v>1.020050201478256</v>
+        <v>1.029432320130244</v>
       </c>
       <c r="L18">
-        <v>1.004397882677951</v>
+        <v>1.018276239332337</v>
       </c>
       <c r="M18">
-        <v>0.9676060472311736</v>
+        <v>1.028924369705429</v>
       </c>
       <c r="N18">
-        <v>1.013544668892659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01167497160779</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032366133407669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9851865164219381</v>
+        <v>0.9964124463359408</v>
       </c>
       <c r="D19">
-        <v>1.006932906050567</v>
+        <v>1.01554279607392</v>
       </c>
       <c r="E19">
-        <v>0.9910571691205222</v>
+        <v>1.00415395519632</v>
       </c>
       <c r="F19">
-        <v>0.9539298642365636</v>
+        <v>1.013905040752469</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037842093065099</v>
+        <v>1.043857549764304</v>
       </c>
       <c r="J19">
-        <v>1.012683104735777</v>
+        <v>1.023476251328778</v>
       </c>
       <c r="K19">
-        <v>1.020569124808907</v>
+        <v>1.029035393080989</v>
       </c>
       <c r="L19">
-        <v>1.004966690748542</v>
+        <v>1.017837208414986</v>
       </c>
       <c r="M19">
-        <v>0.9685250990939828</v>
+        <v>1.027424715350165</v>
       </c>
       <c r="N19">
-        <v>1.014121230900878</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01141539556814</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.030851822567847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9818392555726764</v>
+        <v>0.9933444036814392</v>
       </c>
       <c r="D20">
-        <v>1.004262425568976</v>
+        <v>1.013185525356924</v>
       </c>
       <c r="E20">
-        <v>0.9881489607456012</v>
+        <v>1.001553139292681</v>
       </c>
       <c r="F20">
-        <v>0.9493871326894704</v>
+        <v>1.009459349165233</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03629948464089</v>
+        <v>1.042495083356287</v>
       </c>
       <c r="J20">
-        <v>1.010088650202078</v>
+        <v>1.021134320401899</v>
       </c>
       <c r="K20">
-        <v>1.018230737158561</v>
+        <v>1.027000418969447</v>
       </c>
       <c r="L20">
-        <v>1.002403447255502</v>
+        <v>1.015568733485452</v>
       </c>
       <c r="M20">
-        <v>0.9643824265859735</v>
+        <v>1.023337881927584</v>
       </c>
       <c r="N20">
-        <v>1.011523091944153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010456299150463</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.02708409218222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9705005980006242</v>
+        <v>0.9875503644980451</v>
       </c>
       <c r="D21">
-        <v>0.9952246812711223</v>
+        <v>1.008992296735744</v>
       </c>
       <c r="E21">
-        <v>0.9783013220169609</v>
+        <v>0.9969475959952271</v>
       </c>
       <c r="F21">
-        <v>0.9339487041328252</v>
+        <v>1.005049525624811</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031052264727849</v>
+        <v>1.040414510773096</v>
       </c>
       <c r="J21">
-        <v>1.001285634699385</v>
+        <v>1.017577981934689</v>
       </c>
       <c r="K21">
-        <v>1.010297091834516</v>
+        <v>1.02380528672613</v>
       </c>
       <c r="L21">
-        <v>0.9937057828631797</v>
+        <v>1.011987028781324</v>
       </c>
       <c r="M21">
-        <v>0.9502996578421476</v>
+        <v>1.019935860551457</v>
       </c>
       <c r="N21">
-        <v>1.002707575149726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009206018780123</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.024350101744865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9629798207008801</v>
+        <v>0.9838876272956603</v>
       </c>
       <c r="D22">
-        <v>0.9892376945131802</v>
+        <v>1.006353333975396</v>
       </c>
       <c r="E22">
-        <v>0.971773430715536</v>
+        <v>0.9940527737474751</v>
       </c>
       <c r="F22">
-        <v>0.9236604380303215</v>
+        <v>1.002392067519383</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027555167991571</v>
+        <v>1.039102831170115</v>
       </c>
       <c r="J22">
-        <v>0.9954354676291712</v>
+        <v>1.015351667691724</v>
       </c>
       <c r="K22">
-        <v>1.005025412772302</v>
+        <v>1.021799972087174</v>
       </c>
       <c r="L22">
-        <v>0.9879255953228916</v>
+        <v>1.009742974223474</v>
       </c>
       <c r="M22">
-        <v>0.9409126923828648</v>
+        <v>1.017916285560688</v>
       </c>
       <c r="N22">
-        <v>0.9968491001712487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008430044489965</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.022751704768926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9670068450859025</v>
+        <v>0.9858383275162351</v>
       </c>
       <c r="D23">
-        <v>0.9924426571796714</v>
+        <v>1.007758356652869</v>
       </c>
       <c r="E23">
-        <v>0.9752683769753245</v>
+        <v>0.9955937280895713</v>
       </c>
       <c r="F23">
-        <v>0.9291744688354859</v>
+        <v>1.003806063018406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029429242888621</v>
+        <v>1.039802440190851</v>
       </c>
       <c r="J23">
-        <v>0.9985690094231181</v>
+        <v>1.016537701272891</v>
       </c>
       <c r="K23">
-        <v>1.007849006466751</v>
+        <v>1.02286838211169</v>
       </c>
       <c r="L23">
-        <v>0.9910216287728021</v>
+        <v>1.01093813386747</v>
       </c>
       <c r="M23">
-        <v>0.9459437977265281</v>
+        <v>1.018991423297082</v>
       </c>
       <c r="N23">
-        <v>0.9999870919539652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008843456491852</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.023602625315481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9820233232543368</v>
+        <v>0.9933232709638324</v>
       </c>
       <c r="D24">
-        <v>1.004409248638582</v>
+        <v>1.013158511862607</v>
       </c>
       <c r="E24">
-        <v>0.9883088731529605</v>
+        <v>1.001522793762881</v>
       </c>
       <c r="F24">
-        <v>0.9496371041122607</v>
+        <v>1.009259721087801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036384393614189</v>
+        <v>1.042464008644096</v>
       </c>
       <c r="J24">
-        <v>1.010231373625843</v>
+        <v>1.021080780863609</v>
       </c>
       <c r="K24">
-        <v>1.018359372867874</v>
+        <v>1.026958423675793</v>
       </c>
       <c r="L24">
-        <v>1.0025444565877</v>
+        <v>1.015523220106409</v>
       </c>
       <c r="M24">
-        <v>0.9646104005164404</v>
+        <v>1.023126153839057</v>
       </c>
       <c r="N24">
-        <v>1.01166601805155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010426455539932</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.026875058582488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9979986578022771</v>
+        <v>1.001636163360259</v>
       </c>
       <c r="D25">
-        <v>1.017163961734603</v>
+        <v>1.019171493857368</v>
       </c>
       <c r="E25">
-        <v>1.002192047791226</v>
+        <v>1.008138523089079</v>
       </c>
       <c r="F25">
-        <v>0.9712649276765615</v>
+        <v>1.015370867050184</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043715886130017</v>
+        <v>1.045371327555185</v>
       </c>
       <c r="J25">
-        <v>1.022593563323567</v>
+        <v>1.026108589266254</v>
       </c>
       <c r="K25">
-        <v>1.029501546725667</v>
+        <v>1.031479312214469</v>
       </c>
       <c r="L25">
-        <v>1.01475643008146</v>
+        <v>1.02061179915946</v>
       </c>
       <c r="M25">
-        <v>0.9843263229066099</v>
+        <v>1.027735165692706</v>
       </c>
       <c r="N25">
-        <v>1.024045763476608</v>
+        <v>1.012176920713964</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.030522843481232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007993199781812</v>
+        <v>1.007760471447292</v>
       </c>
       <c r="D2">
-        <v>1.023779524267673</v>
+        <v>1.023133523633573</v>
       </c>
       <c r="E2">
-        <v>1.013220135308971</v>
+        <v>1.013059938239533</v>
       </c>
       <c r="F2">
-        <v>1.020084933421647</v>
+        <v>1.019984115895499</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04755373896486</v>
+        <v>1.047248416228856</v>
       </c>
       <c r="J2">
-        <v>1.029937435998089</v>
+        <v>1.029711520070089</v>
       </c>
       <c r="K2">
-        <v>1.03491722225995</v>
+        <v>1.034279711556742</v>
       </c>
       <c r="L2">
-        <v>1.024498314525669</v>
+        <v>1.024340277054314</v>
       </c>
       <c r="M2">
-        <v>1.031271368882102</v>
+        <v>1.031171887507219</v>
       </c>
       <c r="N2">
-        <v>1.013508549239125</v>
+        <v>1.014846695891132</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.033321545048351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033242811411266</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021114799001664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012462776938633</v>
+        <v>1.011914773901635</v>
       </c>
       <c r="D3">
-        <v>1.027023858482298</v>
+        <v>1.025999319134097</v>
       </c>
       <c r="E3">
-        <v>1.016804953279047</v>
+        <v>1.016365422566345</v>
       </c>
       <c r="F3">
-        <v>1.023421778480556</v>
+        <v>1.023184709715297</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049063587597059</v>
+        <v>1.048535797693654</v>
       </c>
       <c r="J3">
-        <v>1.032619365170038</v>
+        <v>1.032085817235102</v>
       </c>
       <c r="K3">
-        <v>1.037322256931394</v>
+        <v>1.036309999786498</v>
       </c>
       <c r="L3">
-        <v>1.027227233763911</v>
+        <v>1.026793100909994</v>
       </c>
       <c r="M3">
-        <v>1.033763493775673</v>
+        <v>1.033529289164548</v>
       </c>
       <c r="N3">
-        <v>1.014440350244841</v>
+        <v>1.015497015746597</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.035293911948496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035108553325872</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021561528555854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015290972127894</v>
+        <v>1.014546296234575</v>
       </c>
       <c r="D4">
-        <v>1.029078462479633</v>
+        <v>1.027816438690387</v>
       </c>
       <c r="E4">
-        <v>1.019078547363736</v>
+        <v>1.018464587274218</v>
       </c>
       <c r="F4">
-        <v>1.025543262075933</v>
+        <v>1.025221393190002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050007281560392</v>
+        <v>1.049339773886059</v>
       </c>
       <c r="J4">
-        <v>1.03431145929386</v>
+        <v>1.033585086083459</v>
       </c>
       <c r="K4">
-        <v>1.038838159754492</v>
+        <v>1.037590346593675</v>
       </c>
       <c r="L4">
-        <v>1.028952037604216</v>
+        <v>1.028345153926099</v>
       </c>
       <c r="M4">
-        <v>1.035342875148326</v>
+        <v>1.035024657326369</v>
       </c>
       <c r="N4">
-        <v>1.015027768311442</v>
+        <v>1.015907493702132</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.036543894422071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036292044914925</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02184043634018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01646516257438</v>
+        <v>1.015639467537977</v>
       </c>
       <c r="D5">
-        <v>1.029931834558149</v>
+        <v>1.028571677456125</v>
       </c>
       <c r="E5">
-        <v>1.020023698904663</v>
+        <v>1.01933784953201</v>
       </c>
       <c r="F5">
-        <v>1.026426409073291</v>
+        <v>1.026069651562286</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050396227383612</v>
+        <v>1.049670950353903</v>
       </c>
       <c r="J5">
-        <v>1.035012747428203</v>
+        <v>1.034206735468995</v>
       </c>
       <c r="K5">
-        <v>1.039466056086144</v>
+        <v>1.038120804409482</v>
       </c>
       <c r="L5">
-        <v>1.029667619723265</v>
+        <v>1.028989460989961</v>
       </c>
       <c r="M5">
-        <v>1.035999143845204</v>
+        <v>1.035646324074147</v>
       </c>
       <c r="N5">
-        <v>1.01527110281355</v>
+        <v>1.016077647959152</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.037063289775747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036784055188299</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021955307337704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016661462066555</v>
+        <v>1.015822258441553</v>
       </c>
       <c r="D6">
-        <v>1.030074519527089</v>
+        <v>1.028697983171707</v>
       </c>
       <c r="E6">
-        <v>1.020181778340476</v>
+        <v>1.019483940928968</v>
       </c>
       <c r="F6">
-        <v>1.026574190061611</v>
+        <v>1.026211618019876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050461081864127</v>
+        <v>1.049726160597797</v>
       </c>
       <c r="J6">
-        <v>1.035129914722835</v>
+        <v>1.034310612751629</v>
       </c>
       <c r="K6">
-        <v>1.039570939437604</v>
+        <v>1.038209418645568</v>
       </c>
       <c r="L6">
-        <v>1.029787218628655</v>
+        <v>1.029097169858298</v>
       </c>
       <c r="M6">
-        <v>1.036108889366668</v>
+        <v>1.035750300726171</v>
       </c>
       <c r="N6">
-        <v>1.015311750495304</v>
+        <v>1.016106077951668</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.037150146409195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036866346159307</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021974456408187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015306719135082</v>
+        <v>1.014571285777568</v>
       </c>
       <c r="D7">
-        <v>1.029089905669611</v>
+        <v>1.027834861214597</v>
       </c>
       <c r="E7">
-        <v>1.019091217988141</v>
+        <v>1.018485941053811</v>
       </c>
       <c r="F7">
-        <v>1.02555509662936</v>
+        <v>1.02523722417449</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050012509018603</v>
+        <v>1.049349982374884</v>
       </c>
       <c r="J7">
-        <v>1.03432086911946</v>
+        <v>1.033603503715386</v>
       </c>
       <c r="K7">
-        <v>1.038846586290783</v>
+        <v>1.037605668656087</v>
       </c>
       <c r="L7">
-        <v>1.028961636305003</v>
+        <v>1.028363333080456</v>
       </c>
       <c r="M7">
-        <v>1.035351674197836</v>
+        <v>1.035037406150459</v>
       </c>
       <c r="N7">
-        <v>1.01503103383943</v>
+        <v>1.015939188678201</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.036550858318263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036302134813695</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021844814149037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009517270934039</v>
+        <v>1.009208340860843</v>
       </c>
       <c r="D8">
-        <v>1.024885413052339</v>
+        <v>1.024135589323788</v>
       </c>
       <c r="E8">
-        <v>1.014441387253719</v>
+        <v>1.014215370506789</v>
       </c>
       <c r="F8">
-        <v>1.021220619699905</v>
+        <v>1.021086854056044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048071003874591</v>
+        <v>1.047707364564199</v>
       </c>
       <c r="J8">
-        <v>1.030852953927705</v>
+        <v>1.030552759485331</v>
       </c>
       <c r="K8">
-        <v>1.035738524829155</v>
+        <v>1.034998259671194</v>
       </c>
       <c r="L8">
-        <v>1.025429230436411</v>
+        <v>1.025206167805883</v>
       </c>
       <c r="M8">
-        <v>1.032120616097552</v>
+        <v>1.031988569711205</v>
       </c>
       <c r="N8">
-        <v>1.013826730604779</v>
+        <v>1.015158389458491</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.033993673739853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033889166916119</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021276775657694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9988011973443411</v>
+        <v>0.9992714330370513</v>
       </c>
       <c r="D9">
-        <v>1.017119154809188</v>
+        <v>1.017293981968865</v>
       </c>
       <c r="E9">
-        <v>1.00587865372037</v>
+        <v>1.006341933234807</v>
       </c>
       <c r="F9">
-        <v>1.013280155517438</v>
+        <v>1.013484426566629</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044386170912601</v>
+        <v>1.044565381129831</v>
       </c>
       <c r="J9">
-        <v>1.024396359561479</v>
+        <v>1.02484994514</v>
       </c>
       <c r="K9">
-        <v>1.02994046003922</v>
+        <v>1.030112572054622</v>
       </c>
       <c r="L9">
-        <v>1.018877068498536</v>
+        <v>1.01933294820771</v>
       </c>
       <c r="M9">
-        <v>1.026161384237266</v>
+        <v>1.026362452163412</v>
       </c>
       <c r="N9">
-        <v>1.011581002210247</v>
+        <v>1.013605799349426</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.02927728230096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029436416594273</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020186620321777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9914221266344652</v>
+        <v>0.9924861094919901</v>
       </c>
       <c r="D10">
-        <v>1.011800677897233</v>
+        <v>1.01265503925955</v>
       </c>
       <c r="E10">
-        <v>1.000031883829924</v>
+        <v>1.001019928488405</v>
       </c>
       <c r="F10">
-        <v>1.008104745155848</v>
+        <v>1.008567498123174</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041821685420373</v>
+        <v>1.042402289636659</v>
       </c>
       <c r="J10">
-        <v>1.019980258714304</v>
+        <v>1.021001049540679</v>
       </c>
       <c r="K10">
-        <v>1.025960086873356</v>
+        <v>1.02679950147331</v>
       </c>
       <c r="L10">
-        <v>1.01440056262823</v>
+        <v>1.015370792197265</v>
       </c>
       <c r="M10">
-        <v>1.022329191739695</v>
+        <v>1.022783767756514</v>
       </c>
       <c r="N10">
-        <v>1.010057417359261</v>
+        <v>1.012681675064882</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.026296514137753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026656264663306</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019446865447485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9893066121956566</v>
+        <v>0.9905462208356858</v>
       </c>
       <c r="D11">
-        <v>1.010401370617583</v>
+        <v>1.011444459374973</v>
       </c>
       <c r="E11">
-        <v>0.9985059166883633</v>
+        <v>0.9996406104237534</v>
       </c>
       <c r="F11">
-        <v>1.008493072873196</v>
+        <v>1.009028207545306</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041319682474594</v>
+        <v>1.042014371985597</v>
       </c>
       <c r="J11">
-        <v>1.019131115715334</v>
+        <v>1.020317646115188</v>
       </c>
       <c r="K11">
-        <v>1.025129762415752</v>
+        <v>1.026153729738807</v>
       </c>
       <c r="L11">
-        <v>1.013456064342922</v>
+        <v>1.014569307489693</v>
       </c>
       <c r="M11">
-        <v>1.023256580153276</v>
+        <v>1.023781850098924</v>
       </c>
       <c r="N11">
-        <v>1.009888368294396</v>
+        <v>1.01281058258934</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.027472268640156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027887751214953</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01937856817909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9889157916680221</v>
+        <v>0.9901666718812884</v>
       </c>
       <c r="D12">
-        <v>1.010209746108809</v>
+        <v>1.011264878509065</v>
       </c>
       <c r="E12">
-        <v>0.9983060994147619</v>
+        <v>0.9994416886352488</v>
       </c>
       <c r="F12">
-        <v>1.009533658748477</v>
+        <v>1.010070694497319</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041354148905058</v>
+        <v>1.04205632076202</v>
       </c>
       <c r="J12">
-        <v>1.019196777670349</v>
+        <v>1.020393106009721</v>
       </c>
       <c r="K12">
-        <v>1.025143923112641</v>
+        <v>1.026179397310258</v>
       </c>
       <c r="L12">
-        <v>1.013465823999154</v>
+        <v>1.014579592832044</v>
       </c>
       <c r="M12">
-        <v>1.024480460149829</v>
+        <v>1.02500746617294</v>
       </c>
       <c r="N12">
-        <v>1.010010524822694</v>
+        <v>1.012997102933548</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.028770158166864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029186869869898</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019438536607721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9898214200128718</v>
+        <v>0.9909456847559378</v>
       </c>
       <c r="D13">
-        <v>1.010929984623677</v>
+        <v>1.011852837769258</v>
       </c>
       <c r="E13">
-        <v>0.999106595882631</v>
+        <v>1.000120624838494</v>
       </c>
       <c r="F13">
-        <v>1.01116383542589</v>
+        <v>1.011644381826729</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041805498822325</v>
+        <v>1.042427265803906</v>
       </c>
       <c r="J13">
-        <v>1.019968668910554</v>
+        <v>1.021044202030699</v>
       </c>
       <c r="K13">
-        <v>1.02580739592401</v>
+        <v>1.026713141866208</v>
       </c>
       <c r="L13">
-        <v>1.014206840626259</v>
+        <v>1.015201488086251</v>
       </c>
       <c r="M13">
-        <v>1.026036907912246</v>
+        <v>1.026508546575406</v>
       </c>
       <c r="N13">
-        <v>1.010363595898867</v>
+        <v>1.013202776753736</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.030279819384684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030652656212113</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019599266095733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9910240394793902</v>
+        <v>0.9920015995487987</v>
       </c>
       <c r="D14">
-        <v>1.011832224818603</v>
+        <v>1.012601520934377</v>
       </c>
       <c r="E14">
-        <v>1.000103611523204</v>
+        <v>1.000981674256443</v>
       </c>
       <c r="F14">
-        <v>1.012541074466509</v>
+        <v>1.012957863586581</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042299888186809</v>
+        <v>1.042828235247563</v>
       </c>
       <c r="J14">
-        <v>1.020811251130676</v>
+        <v>1.021747084541106</v>
       </c>
       <c r="K14">
-        <v>1.026551080816732</v>
+        <v>1.027306303058659</v>
       </c>
       <c r="L14">
-        <v>1.015040540443323</v>
+        <v>1.015902045945692</v>
       </c>
       <c r="M14">
-        <v>1.027246961419709</v>
+        <v>1.027656136036933</v>
       </c>
       <c r="N14">
-        <v>1.010708404127894</v>
+        <v>1.013353157388623</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.031410829367357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031734243506797</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01975482339748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9916131823219371</v>
+        <v>0.9925247884674055</v>
       </c>
       <c r="D15">
-        <v>1.012262683140018</v>
+        <v>1.012962529740852</v>
       </c>
       <c r="E15">
-        <v>1.000577435298161</v>
+        <v>1.001395825953986</v>
       </c>
       <c r="F15">
-        <v>1.013054395449913</v>
+        <v>1.013442860796582</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042519791842221</v>
+        <v>1.043005921444849</v>
       </c>
       <c r="J15">
-        <v>1.021185844586943</v>
+        <v>1.022058892353981</v>
       </c>
       <c r="K15">
-        <v>1.026886326031768</v>
+        <v>1.027573469808077</v>
       </c>
       <c r="L15">
-        <v>1.015416603150128</v>
+        <v>1.016219685453954</v>
       </c>
       <c r="M15">
-        <v>1.027663669769577</v>
+        <v>1.028045095641521</v>
       </c>
       <c r="N15">
-        <v>1.01084871368824</v>
+        <v>1.013401793601091</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.031777949214255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032079422617566</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01981864077839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9945389627050634</v>
+        <v>0.9951605340990399</v>
       </c>
       <c r="D16">
-        <v>1.014354306460125</v>
+        <v>1.014742980207536</v>
       </c>
       <c r="E16">
-        <v>1.002870499103821</v>
+        <v>1.003433485313777</v>
       </c>
       <c r="F16">
-        <v>1.014963694552782</v>
+        <v>1.015228642382758</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043519724637472</v>
+        <v>1.043817578922956</v>
       </c>
       <c r="J16">
-        <v>1.022893453123674</v>
+        <v>1.023490080079442</v>
       </c>
       <c r="K16">
-        <v>1.028433206257992</v>
+        <v>1.028815140293186</v>
       </c>
       <c r="L16">
-        <v>1.017151592519767</v>
+        <v>1.017704526255656</v>
       </c>
       <c r="M16">
-        <v>1.029032030362795</v>
+        <v>1.029292390333233</v>
       </c>
       <c r="N16">
-        <v>1.011419876136555</v>
+        <v>1.013567992959608</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032820550723256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.033026341388787</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020085547107949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9961644833685752</v>
+        <v>0.9966497166054479</v>
       </c>
       <c r="D17">
-        <v>1.015495763857064</v>
+        <v>1.015732775866286</v>
       </c>
       <c r="E17">
-        <v>1.004118622575956</v>
+        <v>1.004564730400449</v>
       </c>
       <c r="F17">
-        <v>1.015714168630571</v>
+        <v>1.015921316018436</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044030912160061</v>
+        <v>1.044237972231382</v>
       </c>
       <c r="J17">
-        <v>1.023770856951622</v>
+        <v>1.024237252865785</v>
       </c>
       <c r="K17">
-        <v>1.02923744388334</v>
+        <v>1.029470463392236</v>
       </c>
       <c r="L17">
-        <v>1.018054820748355</v>
+        <v>1.018493193953517</v>
       </c>
       <c r="M17">
-        <v>1.029452169511076</v>
+        <v>1.029655829274953</v>
       </c>
       <c r="N17">
-        <v>1.011680425042094</v>
+        <v>1.013648346915402</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033022807428539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.033183797970234</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020211744400388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9967742437939983</v>
+        <v>0.9972342267515921</v>
       </c>
       <c r="D18">
-        <v>1.015882216436477</v>
+        <v>1.016086251933207</v>
       </c>
       <c r="E18">
-        <v>1.004535335142103</v>
+        <v>1.004965246694178</v>
       </c>
       <c r="F18">
-        <v>1.015365699948583</v>
+        <v>1.015562705153767</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044139685946201</v>
+        <v>1.044327846759708</v>
       </c>
       <c r="J18">
-        <v>1.023959672668947</v>
+        <v>1.024402130410117</v>
       </c>
       <c r="K18">
-        <v>1.029432320130244</v>
+        <v>1.029632974930552</v>
       </c>
       <c r="L18">
-        <v>1.018276239332337</v>
+        <v>1.018698820402477</v>
       </c>
       <c r="M18">
-        <v>1.028924369705429</v>
+        <v>1.029118106394286</v>
       </c>
       <c r="N18">
-        <v>1.01167497160779</v>
+        <v>1.013606511353415</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032366133407669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.032519312187207</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020213269137389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9964124463359408</v>
+        <v>0.9969454776188335</v>
       </c>
       <c r="D19">
-        <v>1.01554279607392</v>
+        <v>1.015821632692222</v>
       </c>
       <c r="E19">
-        <v>1.00415395519632</v>
+        <v>1.004656565717041</v>
       </c>
       <c r="F19">
-        <v>1.013905040752469</v>
+        <v>1.014134496539388</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043857549764304</v>
+        <v>1.04409157257536</v>
       </c>
       <c r="J19">
-        <v>1.023476251328778</v>
+        <v>1.023989074562947</v>
       </c>
       <c r="K19">
-        <v>1.029035393080989</v>
+        <v>1.02930963078528</v>
       </c>
       <c r="L19">
-        <v>1.017837208414986</v>
+        <v>1.018331287243279</v>
       </c>
       <c r="M19">
-        <v>1.027424715350165</v>
+        <v>1.027650370681785</v>
       </c>
       <c r="N19">
-        <v>1.01141539556814</v>
+        <v>1.013423496409176</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.030851822567847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.031030297270008</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020091822663239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9933444036814392</v>
+        <v>0.9942227818413144</v>
       </c>
       <c r="D20">
-        <v>1.013185525356924</v>
+        <v>1.013837987475608</v>
       </c>
       <c r="E20">
-        <v>1.001553139292681</v>
+        <v>1.002375454424267</v>
       </c>
       <c r="F20">
-        <v>1.009459349165233</v>
+        <v>1.009841244102498</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042495083356287</v>
+        <v>1.042954268026102</v>
       </c>
       <c r="J20">
-        <v>1.021134320401899</v>
+        <v>1.021978236521557</v>
       </c>
       <c r="K20">
-        <v>1.027000418969447</v>
+        <v>1.02764179985011</v>
       </c>
       <c r="L20">
-        <v>1.015568733485452</v>
+        <v>1.016376662539636</v>
       </c>
       <c r="M20">
-        <v>1.023337881927584</v>
+        <v>1.023713226588036</v>
       </c>
       <c r="N20">
-        <v>1.010456299150463</v>
+        <v>1.012845140300517</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.02708409218222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.027381142772389</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019633179015362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9875503644980451</v>
+        <v>0.9890591958656272</v>
       </c>
       <c r="D21">
-        <v>1.008992296735744</v>
+        <v>1.010312473156646</v>
       </c>
       <c r="E21">
-        <v>0.9969475959952271</v>
+        <v>0.9983381601933858</v>
       </c>
       <c r="F21">
-        <v>1.005049525624811</v>
+        <v>1.005707128014139</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040414510773096</v>
+        <v>1.041278973381639</v>
       </c>
       <c r="J21">
-        <v>1.017577981934689</v>
+        <v>1.019021578151982</v>
       </c>
       <c r="K21">
-        <v>1.02380528672613</v>
+        <v>1.025101071444843</v>
       </c>
       <c r="L21">
-        <v>1.011987028781324</v>
+        <v>1.013351085185525</v>
       </c>
       <c r="M21">
-        <v>1.019935860551457</v>
+        <v>1.020581177820907</v>
       </c>
       <c r="N21">
-        <v>1.009206018780123</v>
+        <v>1.012463968160948</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.024350101744865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.024860838693494</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019063634914585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9838876272956603</v>
+        <v>0.9857957543306455</v>
       </c>
       <c r="D22">
-        <v>1.006353333975396</v>
+        <v>1.008095405105709</v>
       </c>
       <c r="E22">
-        <v>0.9940527737474751</v>
+        <v>0.995802947956127</v>
       </c>
       <c r="F22">
-        <v>1.002392067519383</v>
+        <v>1.003224567953034</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039102831170115</v>
+        <v>1.040222632159378</v>
       </c>
       <c r="J22">
-        <v>1.015351667691724</v>
+        <v>1.017172298386354</v>
       </c>
       <c r="K22">
-        <v>1.021799972087174</v>
+        <v>1.023508178404421</v>
       </c>
       <c r="L22">
-        <v>1.009742974223474</v>
+        <v>1.011458010315278</v>
       </c>
       <c r="M22">
-        <v>1.017916285560688</v>
+        <v>1.018732415035376</v>
       </c>
       <c r="N22">
-        <v>1.008430044489965</v>
+        <v>1.012228528541601</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.022751704768926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.023397632653682</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01870892355356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9858383275162351</v>
+        <v>0.9875162206218342</v>
       </c>
       <c r="D23">
-        <v>1.007758356652869</v>
+        <v>1.009261426617975</v>
       </c>
       <c r="E23">
-        <v>0.9955937280895713</v>
+        <v>0.9971355202439562</v>
       </c>
       <c r="F23">
-        <v>1.003806063018406</v>
+        <v>1.004537707547147</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039802440190851</v>
+        <v>1.04077658707194</v>
       </c>
       <c r="J23">
-        <v>1.016537701272891</v>
+        <v>1.018141001277279</v>
       </c>
       <c r="K23">
-        <v>1.02286838211169</v>
+        <v>1.024343004376107</v>
       </c>
       <c r="L23">
-        <v>1.01093813386747</v>
+        <v>1.012449804668418</v>
       </c>
       <c r="M23">
-        <v>1.018991423297082</v>
+        <v>1.019709063408537</v>
       </c>
       <c r="N23">
-        <v>1.008843456491852</v>
+        <v>1.012308428816567</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.023602625315481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.024170602845564</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018892932297392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9933232709638324</v>
+        <v>0.9942090304175726</v>
       </c>
       <c r="D24">
-        <v>1.013158511862607</v>
+        <v>1.013818461220846</v>
       </c>
       <c r="E24">
-        <v>1.001522793762881</v>
+        <v>1.002352643805737</v>
       </c>
       <c r="F24">
-        <v>1.009259721087801</v>
+        <v>1.009645119814272</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042464008644096</v>
+        <v>1.042927804724782</v>
       </c>
       <c r="J24">
-        <v>1.021080780863609</v>
+        <v>1.021931835853177</v>
       </c>
       <c r="K24">
-        <v>1.026958423675793</v>
+        <v>1.027607178366635</v>
       </c>
       <c r="L24">
-        <v>1.015523220106409</v>
+        <v>1.016338569964653</v>
       </c>
       <c r="M24">
-        <v>1.023126153839057</v>
+        <v>1.023504947345906</v>
       </c>
       <c r="N24">
-        <v>1.010426455539932</v>
+        <v>1.012821245594199</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.026875058582488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.027174853990989</v>
+      </c>
+      <c r="S24">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T24">
+        <v>1.019618507312031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001636163360259</v>
+        <v>1.001884418514463</v>
       </c>
       <c r="D25">
-        <v>1.019171493857368</v>
+        <v>1.019089247719188</v>
       </c>
       <c r="E25">
-        <v>1.008138523089079</v>
+        <v>1.00840498999661</v>
       </c>
       <c r="F25">
-        <v>1.015370867050184</v>
+        <v>1.015478618002278</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045371327555185</v>
+        <v>1.045398723405236</v>
       </c>
       <c r="J25">
-        <v>1.026108589266254</v>
+        <v>1.026348530458899</v>
       </c>
       <c r="K25">
-        <v>1.031479312214469</v>
+        <v>1.031398282651391</v>
       </c>
       <c r="L25">
-        <v>1.02061179915946</v>
+        <v>1.020874215576304</v>
       </c>
       <c r="M25">
-        <v>1.027735165692706</v>
+        <v>1.027841307974716</v>
       </c>
       <c r="N25">
-        <v>1.012176920713964</v>
+        <v>1.01398235243158</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030522843481232</v>
+        <v>1.030606849160003</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020474716067649</v>
       </c>
     </row>
   </sheetData>
